--- a/analysis/Country_Code.xlsx
+++ b/analysis/Country_Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4e5243fef560eb6/Desktop/My Files/WeCloudData/3. Excel Bootcamp/2. Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/013105998285ff0a/Documents/1_LACDAO Family/May/Career/Data Analytics/Academic Part/WeCloud/GitHub Repos/excel-kickstarter-analysis-dashboard/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:40009_{841DBF7A-34D0-4AE9-A8AD-CA505CCC314C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A0C01E37-3801-48C6-9B76-A3D6A6E043B1}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:40009_{841DBF7A-34D0-4AE9-A8AD-CA505CCC314C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CFC16A6D-BC95-4E0E-BDE6-F95EE62B7E4A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="11520" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Country Codes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1518,7 +1521,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2095,7 +2098,9 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F66EE8A9-663B-4F0A-8EF2-7DA9DB6EC98B}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2411,14 +2416,14 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>492</v>
       </c>
@@ -2426,7 +2431,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>107</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>448</v>
       </c>
@@ -2442,7 +2447,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>109</v>
       </c>
@@ -2450,7 +2455,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>111</v>
       </c>
@@ -2458,7 +2463,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2474,7 +2479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>450</v>
       </c>
@@ -2482,7 +2487,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>113</v>
       </c>
@@ -2490,7 +2495,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>452</v>
       </c>
@@ -2498,7 +2503,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>114</v>
       </c>
@@ -2506,7 +2511,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>128</v>
       </c>
@@ -2514,7 +2519,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>130</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>132</v>
       </c>
@@ -2530,7 +2535,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -2538,7 +2543,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -2546,7 +2551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>136</v>
       </c>
@@ -2554,7 +2559,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>138</v>
       </c>
@@ -2562,7 +2567,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>140</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>142</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>144</v>
       </c>
@@ -2586,7 +2591,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>146</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>148</v>
       </c>
@@ -2610,7 +2615,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>150</v>
       </c>
@@ -2618,7 +2623,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>166</v>
       </c>
@@ -2626,7 +2631,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>168</v>
       </c>
@@ -2634,7 +2639,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>172</v>
       </c>
@@ -2642,7 +2647,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>453</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>174</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>176</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>181</v>
       </c>
@@ -2674,7 +2679,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>80</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>183</v>
       </c>
@@ -2690,7 +2695,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>185</v>
       </c>
@@ -2698,7 +2703,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>152</v>
       </c>
@@ -2706,7 +2711,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>187</v>
       </c>
@@ -2714,7 +2719,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>189</v>
       </c>
@@ -2722,7 +2727,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>191</v>
       </c>
@@ -2730,7 +2735,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>103</v>
       </c>
@@ -2738,7 +2743,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>202</v>
       </c>
@@ -2746,7 +2751,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>204</v>
       </c>
@@ -2754,7 +2759,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>193</v>
       </c>
@@ -2762,7 +2767,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>195</v>
       </c>
@@ -2770,7 +2775,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>206</v>
       </c>
@@ -2778,7 +2783,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>208</v>
       </c>
@@ -2786,7 +2791,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2794,7 +2799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>14</v>
       </c>
@@ -2802,7 +2807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>210</v>
       </c>
@@ -2810,7 +2815,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>212</v>
       </c>
@@ -2818,7 +2823,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>213</v>
       </c>
@@ -2826,7 +2831,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>196</v>
       </c>
@@ -2834,7 +2839,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,7 +2847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>215</v>
       </c>
@@ -2850,7 +2855,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>217</v>
       </c>
@@ -2858,7 +2863,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>219</v>
       </c>
@@ -2866,7 +2871,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>221</v>
       </c>
@@ -2874,7 +2879,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>223</v>
       </c>
@@ -2882,7 +2887,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>225</v>
       </c>
@@ -2890,7 +2895,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>231</v>
       </c>
@@ -2898,7 +2903,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>116</v>
       </c>
@@ -2906,7 +2911,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>233</v>
       </c>
@@ -2914,7 +2919,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>235</v>
       </c>
@@ -2922,7 +2927,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>239</v>
       </c>
@@ -2930,7 +2935,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>241</v>
       </c>
@@ -2938,7 +2943,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>243</v>
       </c>
@@ -2946,7 +2951,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>198</v>
       </c>
@@ -2954,7 +2959,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>245</v>
       </c>
@@ -2962,7 +2967,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>249</v>
       </c>
@@ -2970,7 +2975,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>247</v>
       </c>
@@ -2978,7 +2983,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>251</v>
       </c>
@@ -2986,7 +2991,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>227</v>
       </c>
@@ -2994,7 +2999,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>253</v>
       </c>
@@ -3002,7 +3007,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>33</v>
       </c>
@@ -3010,7 +3015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>35</v>
       </c>
@@ -3018,7 +3023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>37</v>
       </c>
@@ -3026,7 +3031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>255</v>
       </c>
@@ -3034,7 +3039,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>39</v>
       </c>
@@ -3042,7 +3047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>200</v>
       </c>
@@ -3050,7 +3055,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>260</v>
       </c>
@@ -3058,7 +3063,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>262</v>
       </c>
@@ -3066,7 +3071,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>41</v>
       </c>
@@ -3074,7 +3079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>455</v>
       </c>
@@ -3082,7 +3087,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>264</v>
       </c>
@@ -3090,7 +3095,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>43</v>
       </c>
@@ -3098,7 +3103,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>229</v>
       </c>
@@ -3106,7 +3111,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>118</v>
       </c>
@@ -3114,7 +3119,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>45</v>
       </c>
@@ -3122,7 +3127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>82</v>
       </c>
@@ -3130,7 +3135,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>266</v>
       </c>
@@ -3138,7 +3143,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>457</v>
       </c>
@@ -3146,7 +3151,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>268</v>
       </c>
@@ -3154,7 +3159,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>154</v>
       </c>
@@ -3162,7 +3167,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>270</v>
       </c>
@@ -3170,7 +3175,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>272</v>
       </c>
@@ -3178,7 +3183,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>15</v>
       </c>
@@ -3186,7 +3191,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>274</v>
       </c>
@@ -3194,7 +3199,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>101</v>
       </c>
@@ -3202,7 +3207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>276</v>
       </c>
@@ -3210,7 +3215,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>278</v>
       </c>
@@ -3218,7 +3223,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>170</v>
       </c>
@@ -3226,7 +3231,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>237</v>
       </c>
@@ -3234,7 +3239,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>279</v>
       </c>
@@ -3242,7 +3247,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>281</v>
       </c>
@@ -3250,7 +3255,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>47</v>
       </c>
@@ -3258,7 +3263,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>458</v>
       </c>
@@ -3266,7 +3271,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>283</v>
       </c>
@@ -3274,7 +3279,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>49</v>
       </c>
@@ -3282,7 +3287,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>156</v>
       </c>
@@ -3290,7 +3295,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>285</v>
       </c>
@@ -3298,7 +3303,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -3306,7 +3311,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>78</v>
       </c>
@@ -3314,7 +3319,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>287</v>
       </c>
@@ -3322,7 +3327,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>289</v>
       </c>
@@ -3330,7 +3335,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>291</v>
       </c>
@@ -3338,7 +3343,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>17</v>
       </c>
@@ -3346,7 +3351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>293</v>
       </c>
@@ -3354,7 +3359,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>295</v>
       </c>
@@ -3362,7 +3367,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>297</v>
       </c>
@@ -3370,7 +3375,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>299</v>
       </c>
@@ -3378,7 +3383,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>300</v>
       </c>
@@ -3386,7 +3391,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>302</v>
       </c>
@@ -3394,7 +3399,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>304</v>
       </c>
@@ -3402,7 +3407,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>306</v>
       </c>
@@ -3410,7 +3415,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>308</v>
       </c>
@@ -3418,7 +3423,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>310</v>
       </c>
@@ -3426,7 +3431,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>312</v>
       </c>
@@ -3434,7 +3439,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>316</v>
       </c>
@@ -3442,7 +3447,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>51</v>
       </c>
@@ -3450,7 +3455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>317</v>
       </c>
@@ -3458,7 +3463,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>319</v>
       </c>
@@ -3466,7 +3471,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>321</v>
       </c>
@@ -3474,7 +3479,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>323</v>
       </c>
@@ -3482,7 +3487,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>325</v>
       </c>
@@ -3490,7 +3495,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>327</v>
       </c>
@@ -3498,7 +3503,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>158</v>
       </c>
@@ -3506,7 +3511,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>329</v>
       </c>
@@ -3514,7 +3519,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>84</v>
       </c>
@@ -3522,7 +3527,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>53</v>
       </c>
@@ -3530,7 +3535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>331</v>
       </c>
@@ -3538,7 +3543,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>333</v>
       </c>
@@ -3546,7 +3551,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>55</v>
       </c>
@@ -3554,7 +3559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>335</v>
       </c>
@@ -3562,7 +3567,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>85</v>
       </c>
@@ -3570,7 +3575,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>336</v>
       </c>
@@ -3578,7 +3583,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>57</v>
       </c>
@@ -3586,7 +3591,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>338</v>
       </c>
@@ -3594,7 +3599,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>461</v>
       </c>
@@ -3602,7 +3607,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>120</v>
       </c>
@@ -3610,7 +3615,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>340</v>
       </c>
@@ -3618,7 +3623,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>344</v>
       </c>
@@ -3626,7 +3631,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>346</v>
       </c>
@@ -3634,7 +3639,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>348</v>
       </c>
@@ -3642,7 +3647,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>19</v>
       </c>
@@ -3650,7 +3655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>350</v>
       </c>
@@ -3658,7 +3663,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>59</v>
       </c>
@@ -3666,7 +3671,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>134</v>
       </c>
@@ -3674,7 +3679,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>257</v>
       </c>
@@ -3682,7 +3687,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>1</v>
       </c>
@@ -3690,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>352</v>
       </c>
@@ -3698,7 +3703,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
@@ -3706,7 +3711,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>354</v>
       </c>
@@ -3714,7 +3719,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>5</v>
       </c>
@@ -3722,7 +3727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>21</v>
       </c>
@@ -3730,7 +3735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>87</v>
       </c>
@@ -3738,7 +3743,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>178</v>
       </c>
@@ -3746,7 +3751,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>356</v>
       </c>
@@ -3754,7 +3759,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>358</v>
       </c>
@@ -3762,7 +3767,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>89</v>
       </c>
@@ -3770,7 +3775,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>463</v>
       </c>
@@ -3778,7 +3783,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>360</v>
       </c>
@@ -3786,7 +3791,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>362</v>
       </c>
@@ -3794,7 +3799,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>364</v>
       </c>
@@ -3802,7 +3807,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>366</v>
       </c>
@@ -3810,7 +3815,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>368</v>
       </c>
@@ -3818,7 +3823,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>7</v>
       </c>
@@ -3826,7 +3831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>370</v>
       </c>
@@ -3834,7 +3839,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>61</v>
       </c>
@@ -3842,7 +3847,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>91</v>
       </c>
@@ -3850,7 +3855,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>372</v>
       </c>
@@ -3858,7 +3863,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>63</v>
       </c>
@@ -3866,7 +3871,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>374</v>
       </c>
@@ -3874,7 +3879,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>376</v>
       </c>
@@ -3882,7 +3887,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>378</v>
       </c>
@@ -3890,7 +3895,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>465</v>
       </c>
@@ -3898,7 +3903,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>467</v>
       </c>
@@ -3906,7 +3911,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>122</v>
       </c>
@@ -3914,7 +3919,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>124</v>
       </c>
@@ -3922,7 +3927,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>468</v>
       </c>
@@ -3930,7 +3935,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>469</v>
       </c>
@@ -3938,7 +3943,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>126</v>
       </c>
@@ -3946,7 +3951,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>65</v>
       </c>
@@ -3954,7 +3959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>67</v>
       </c>
@@ -3962,7 +3967,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>379</v>
       </c>
@@ -3970,7 +3975,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>381</v>
       </c>
@@ -3978,7 +3983,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>162</v>
       </c>
@@ -3986,7 +3991,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>471</v>
       </c>
@@ -3994,7 +3999,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>383</v>
       </c>
@@ -4002,7 +4007,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>385</v>
       </c>
@@ -4010,7 +4015,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>387</v>
       </c>
@@ -4018,7 +4023,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>389</v>
       </c>
@@ -4026,7 +4031,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>69</v>
       </c>
@@ -4034,7 +4039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>391</v>
       </c>
@@ -4042,7 +4047,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>393</v>
       </c>
@@ -4050,7 +4055,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>395</v>
       </c>
@@ -4058,7 +4063,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>74</v>
       </c>
@@ -4066,7 +4071,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>71</v>
       </c>
@@ -4074,7 +4079,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>397</v>
       </c>
@@ -4082,7 +4087,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>399</v>
       </c>
@@ -4090,7 +4095,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>401</v>
       </c>
@@ -4098,7 +4103,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>179</v>
       </c>
@@ -4106,7 +4111,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>403</v>
       </c>
@@ -4114,7 +4119,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>405</v>
       </c>
@@ -4122,7 +4127,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>314</v>
       </c>
@@ -4130,7 +4135,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>407</v>
       </c>
@@ -4138,7 +4143,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>409</v>
       </c>
@@ -4146,7 +4151,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>411</v>
       </c>
@@ -4154,7 +4159,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>413</v>
       </c>
@@ -4162,7 +4167,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>415</v>
       </c>
@@ -4170,7 +4175,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>164</v>
       </c>
@@ -4178,7 +4183,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>9</v>
       </c>
@@ -4186,7 +4191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>417</v>
       </c>
@@ -4194,7 +4199,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>418</v>
       </c>
@@ -4202,7 +4207,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>420</v>
       </c>
@@ -4210,7 +4215,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>422</v>
       </c>
@@ -4218,7 +4223,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>424</v>
       </c>
@@ -4226,7 +4231,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>92</v>
       </c>
@@ -4234,7 +4239,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>23</v>
       </c>
@@ -4242,7 +4247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>426</v>
       </c>
@@ -4250,7 +4255,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>428</v>
       </c>
@@ -4258,7 +4263,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>430</v>
       </c>
@@ -4266,7 +4271,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>76</v>
       </c>
@@ -4274,7 +4279,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>94</v>
       </c>
@@ -4282,7 +4287,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>96</v>
       </c>
@@ -4290,7 +4295,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>432</v>
       </c>
@@ -4298,7 +4303,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>434</v>
       </c>
@@ -4306,7 +4311,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>436</v>
       </c>
@@ -4314,7 +4319,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>73</v>
       </c>
@@ -4322,7 +4327,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>438</v>
       </c>
@@ -4330,7 +4335,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>440</v>
       </c>
@@ -4338,7 +4343,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>98</v>
       </c>
@@ -4346,7 +4351,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>99</v>
       </c>
@@ -4354,7 +4359,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>258</v>
       </c>
@@ -4362,7 +4367,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>342</v>
       </c>
@@ -4370,7 +4375,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>442</v>
       </c>
@@ -4378,7 +4383,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>444</v>
       </c>
@@ -4386,7 +4391,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>446</v>
       </c>
